--- a/src/predicciones/holt_winters/producto_220.xlsx
+++ b/src/predicciones/holt_winters/producto_220.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C179"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1960 +404,1751 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44930</v>
       </c>
       <c r="B2">
-        <v>0.9761858534707026</v>
+        <v>2.012171421311918</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44935</v>
       </c>
       <c r="B3">
-        <v>0.9814644942874506</v>
+        <v>2.005772594394087</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44940</v>
       </c>
       <c r="B4">
-        <v>1.973707331525721</v>
+        <v>1.002836032371514</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44948</v>
       </c>
       <c r="B5">
-        <v>0.9725404829634818</v>
+        <v>1.004354397515044</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44949</v>
       </c>
       <c r="B6">
-        <v>0.9780953380649787</v>
+        <v>1.004248552291453</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44953</v>
       </c>
       <c r="B7">
-        <v>0.9773144226734177</v>
+        <v>1.004170307865432</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44954</v>
       </c>
       <c r="B8">
-        <v>1.967112841811105</v>
+        <v>1.014956481366101</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44956</v>
       </c>
       <c r="B9">
-        <v>0.9656925554810498</v>
+        <v>2.0163514870871</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44962</v>
       </c>
       <c r="B10">
-        <v>0.9709711962977978</v>
+        <v>2.009952660169269</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44966</v>
       </c>
       <c r="B11">
-        <v>1.963214033536069</v>
+        <v>1.007016098146696</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44970</v>
       </c>
       <c r="B12">
-        <v>0.962047184973829</v>
+        <v>1.008534463290226</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44971</v>
       </c>
       <c r="B13">
-        <v>0.9676020400753261</v>
+        <v>1.008428618066635</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44973</v>
       </c>
       <c r="B14">
-        <v>0.9668211246837651</v>
+        <v>1.008350373640614</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44975</v>
       </c>
       <c r="B15">
-        <v>1.956619543821452</v>
+        <v>1.019136547141283</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44980</v>
       </c>
       <c r="B16">
-        <v>0.955199257491397</v>
+        <v>2.020531552862282</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44988</v>
       </c>
       <c r="B17">
-        <v>0.960477898308145</v>
+        <v>2.01413272594445</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44995</v>
       </c>
       <c r="B18">
-        <v>1.952720735546416</v>
+        <v>1.011196163921878</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44996</v>
       </c>
       <c r="B19">
-        <v>0.9515538869841762</v>
+        <v>1.012714529065408</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>45000</v>
       </c>
       <c r="B20">
-        <v>0.9571087420856733</v>
+        <v>1.012608683841816</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45004</v>
       </c>
       <c r="B21">
-        <v>0.9563278266941123</v>
+        <v>1.012530439415796</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45008</v>
       </c>
       <c r="B22">
-        <v>1.9461262458318</v>
+        <v>1.023316612916465</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45009</v>
       </c>
       <c r="B23">
-        <v>0.9447059595017444</v>
+        <v>2.024711618637464</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45011</v>
       </c>
       <c r="B24">
-        <v>0.9499846003184922</v>
+        <v>2.018312791719632</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45017</v>
       </c>
       <c r="B25">
-        <v>1.942227437556763</v>
+        <v>1.01537622969706</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45018</v>
       </c>
       <c r="B26">
-        <v>0.9410605889945234</v>
+        <v>1.01689459484059</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45021</v>
       </c>
       <c r="B27">
-        <v>0.9466154440960205</v>
+        <v>1.016788749616998</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45026</v>
       </c>
       <c r="B28">
-        <v>0.9458345287044595</v>
+        <v>1.016710505190978</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45027</v>
       </c>
       <c r="B29">
-        <v>1.935632947842147</v>
+        <v>1.027496678691646</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45039</v>
       </c>
       <c r="B30">
-        <v>0.9342126615120916</v>
+        <v>2.028891684412645</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45046</v>
       </c>
       <c r="B31">
-        <v>0.9394913023288396</v>
+        <v>2.022492857494814</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45049</v>
       </c>
       <c r="B32">
-        <v>1.93173413956711</v>
+        <v>1.019556295472242</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45051</v>
       </c>
       <c r="B33">
-        <v>0.9305672910048706</v>
+        <v>1.021074660615771</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45055</v>
       </c>
       <c r="B34">
-        <v>0.9361221461063677</v>
+        <v>1.02096881539218</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45056</v>
       </c>
       <c r="B35">
-        <v>0.9353412307148067</v>
+        <v>1.02089057096616</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45058</v>
       </c>
       <c r="B36">
-        <v>1.925139649852494</v>
+        <v>1.031676744466828</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45059</v>
       </c>
       <c r="B37">
-        <v>0.9237193635224388</v>
+        <v>2.033071750187827</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45062</v>
       </c>
       <c r="B38">
-        <v>0.9289980043391868</v>
+        <v>2.026672923269996</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45065</v>
       </c>
       <c r="B39">
-        <v>1.921240841577458</v>
+        <v>1.023736361247424</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45071</v>
       </c>
       <c r="B40">
-        <v>0.920073993015218</v>
+        <v>1.025254726390953</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45073</v>
       </c>
       <c r="B41">
-        <v>0.9256288481167151</v>
+        <v>1.025148881167362</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45074</v>
       </c>
       <c r="B42">
-        <v>0.9248479327251539</v>
+        <v>1.025070636741342</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45076</v>
       </c>
       <c r="B43">
-        <v>1.914646351862841</v>
+        <v>1.03585681024201</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45077</v>
       </c>
       <c r="B44">
-        <v>0.913226065532786</v>
+        <v>2.03725181596301</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45078</v>
       </c>
       <c r="B45">
-        <v>0.918504706349534</v>
+        <v>2.030852989045178</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45084</v>
       </c>
       <c r="B46">
-        <v>1.910747543587805</v>
+        <v>1.027916427022606</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45085</v>
       </c>
       <c r="B47">
-        <v>0.9095806950255652</v>
+        <v>1.029434792166136</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45088</v>
       </c>
       <c r="B48">
-        <v>0.9151355501270623</v>
+        <v>1.029328946942544</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45090</v>
       </c>
       <c r="B49">
-        <v>0.9143546347355013</v>
+        <v>1.029250702516523</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45093</v>
       </c>
       <c r="B50">
-        <v>1.904153053873189</v>
+        <v>1.040036876017192</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45099</v>
       </c>
       <c r="B51">
-        <v>0.9027327675431331</v>
+        <v>2.041431881738191</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45100</v>
       </c>
       <c r="B52">
-        <v>0.9080114083598811</v>
+        <v>2.03503305482036</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45101</v>
       </c>
       <c r="B53">
-        <v>1.900254245598152</v>
+        <v>1.032096492797787</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45102</v>
       </c>
       <c r="B54">
-        <v>0.8990873970359123</v>
+        <v>1.033614857941317</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45104</v>
       </c>
       <c r="B55">
-        <v>0.9046422521374095</v>
+        <v>1.033509012717726</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45110</v>
       </c>
       <c r="B56">
-        <v>0.9038613367458485</v>
+        <v>1.033430768291705</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45112</v>
       </c>
       <c r="B57">
-        <v>1.893659755883536</v>
+        <v>1.044216941792374</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45114</v>
       </c>
       <c r="B58">
-        <v>0.8922394695534805</v>
+        <v>2.045611947513373</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45115</v>
       </c>
       <c r="B59">
-        <v>0.8975181103702286</v>
+        <v>2.039213120595542</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45117</v>
       </c>
       <c r="B60">
-        <v>1.889760947608499</v>
+        <v>1.036276558572969</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45118</v>
       </c>
       <c r="B61">
-        <v>0.8885940990462595</v>
+        <v>1.037794923716499</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45126</v>
       </c>
       <c r="B62">
-        <v>0.8941489541477566</v>
+        <v>1.037689078492908</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45128</v>
       </c>
       <c r="B63">
-        <v>0.8933680387561956</v>
+        <v>1.037610834066887</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45130</v>
       </c>
       <c r="B64">
-        <v>1.883166457893883</v>
+        <v>1.048397007567556</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45133</v>
       </c>
       <c r="B65">
-        <v>0.8817461715638277</v>
+        <v>2.049792013288555</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45137</v>
       </c>
       <c r="B66">
-        <v>0.8870248123805757</v>
+        <v>2.043393186370724</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45146</v>
       </c>
       <c r="B67">
-        <v>1.879267649618847</v>
+        <v>1.040456624348151</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45147</v>
       </c>
       <c r="B68">
-        <v>0.8781008010566069</v>
+        <v>1.041974989491681</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45148</v>
       </c>
       <c r="B69">
-        <v>0.8836556561581038</v>
+        <v>1.04186914426809</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45151</v>
       </c>
       <c r="B70">
-        <v>0.8828747407665428</v>
+        <v>1.041790899842069</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45152</v>
       </c>
       <c r="B71">
-        <v>1.87267315990423</v>
+        <v>1.052577073342738</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45154</v>
       </c>
       <c r="B72">
-        <v>0.8712528735741749</v>
+        <v>2.053972079063737</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45155</v>
       </c>
       <c r="B73">
-        <v>0.8765315143909229</v>
+        <v>2.047573252145906</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45157</v>
       </c>
       <c r="B74">
-        <v>1.868774351629194</v>
+        <v>1.044636690123333</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45160</v>
       </c>
       <c r="B75">
-        <v>0.8676075030669541</v>
+        <v>1.046155055266863</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45162</v>
       </c>
       <c r="B76">
-        <v>0.8731623581684512</v>
+        <v>1.046049210043272</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45167</v>
       </c>
       <c r="B77">
-        <v>0.8723814427768902</v>
+        <v>1.045970965617251</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45170</v>
       </c>
       <c r="B78">
-        <v>1.862179861914577</v>
+        <v>1.05675713911792</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45171</v>
       </c>
       <c r="B79">
-        <v>0.8607595755845221</v>
+        <v>2.058152144838919</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45172</v>
       </c>
       <c r="B80">
-        <v>0.8660382164012701</v>
+        <v>2.051753317921087</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45173</v>
       </c>
       <c r="B81">
-        <v>1.858281053639541</v>
+        <v>1.048816755898515</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45174</v>
       </c>
       <c r="B82">
-        <v>0.8571142050773013</v>
+        <v>1.050335121042045</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45176</v>
       </c>
       <c r="B83">
-        <v>0.8626690601787984</v>
+        <v>1.050229275818453</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45178</v>
       </c>
       <c r="B84">
-        <v>0.8618881447872374</v>
+        <v>1.050151031392433</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45182</v>
       </c>
       <c r="B85">
-        <v>1.851686563924925</v>
+        <v>1.060937204893102</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45183</v>
       </c>
       <c r="B86">
-        <v>0.8502662775948695</v>
+        <v>2.0623322106141</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45186</v>
       </c>
       <c r="B87">
-        <v>0.8555449184116173</v>
+        <v>2.055933383696269</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45189</v>
       </c>
       <c r="B88">
-        <v>1.847787755649888</v>
+        <v>1.052996821673697</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45191</v>
       </c>
       <c r="B89">
-        <v>0.8466209070876485</v>
+        <v>1.054515186817227</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45199</v>
       </c>
       <c r="B90">
-        <v>0.8521757621891456</v>
+        <v>1.054409341593635</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45200</v>
       </c>
       <c r="B91">
-        <v>0.8513948467975846</v>
+        <v>1.054331097167615</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45201</v>
       </c>
       <c r="B92">
-        <v>1.841193265935272</v>
+        <v>1.065117270668283</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45204</v>
       </c>
       <c r="B93">
-        <v>0.8397729796052167</v>
+        <v>2.066512276389282</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45205</v>
       </c>
       <c r="B94">
-        <v>0.8450516204219647</v>
+        <v>2.060113449471451</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45206</v>
       </c>
       <c r="B95">
-        <v>1.837294457660235</v>
+        <v>1.057176887448879</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45209</v>
       </c>
       <c r="B96">
-        <v>0.8361276090979957</v>
+        <v>1.058695252592408</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45210</v>
       </c>
       <c r="B97">
-        <v>0.8416824641994928</v>
+        <v>1.058589407368817</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45212</v>
       </c>
       <c r="B98">
-        <v>0.8409015488079318</v>
+        <v>1.058511162942797</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45214</v>
       </c>
       <c r="B99">
-        <v>1.830699967945619</v>
+        <v>1.069297336443465</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45217</v>
       </c>
       <c r="B100">
-        <v>0.8292796816155639</v>
+        <v>2.070692342164465</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45222</v>
       </c>
       <c r="B101">
-        <v>0.8345583224323119</v>
+        <v>2.064293515246633</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45223</v>
       </c>
       <c r="B102">
-        <v>1.826801159670583</v>
+        <v>1.061356953224061</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45225</v>
       </c>
       <c r="B103">
-        <v>0.8256343111083431</v>
+        <v>1.062875318367591</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45229</v>
       </c>
       <c r="B104">
-        <v>0.8311891662098402</v>
+        <v>1.062769473143999</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45230</v>
       </c>
       <c r="B105">
-        <v>0.830408250818279</v>
+        <v>1.062691228717979</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45233</v>
       </c>
       <c r="B106">
-        <v>1.820206669955966</v>
+        <v>1.073477402218647</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45239</v>
       </c>
       <c r="B107">
-        <v>0.8187863836259111</v>
+        <v>2.074872407939646</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45240</v>
       </c>
       <c r="B108">
-        <v>0.8240650244426591</v>
+        <v>2.068473581021815</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45241</v>
       </c>
       <c r="B109">
-        <v>1.81630786168093</v>
+        <v>1.065537018999243</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45243</v>
       </c>
       <c r="B110">
-        <v>0.8151410131186902</v>
+        <v>1.067055384142773</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45244</v>
       </c>
       <c r="B111">
-        <v>0.8206958682201874</v>
+        <v>1.066949538919181</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45247</v>
       </c>
       <c r="B112">
-        <v>0.8199149528286264</v>
+        <v>1.06687129449316</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45248</v>
       </c>
       <c r="B113">
-        <v>1.809713371966314</v>
+        <v>1.077657467993829</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45250</v>
       </c>
       <c r="B114">
-        <v>0.8082930856362582</v>
+        <v>2.079052473714828</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45251</v>
       </c>
       <c r="B115">
-        <v>0.8135717264530062</v>
+        <v>2.072653646796997</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>45253</v>
       </c>
       <c r="B116">
-        <v>1.805814563691277</v>
+        <v>1.069717084774424</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>45255</v>
       </c>
       <c r="B117">
-        <v>0.8046477151290374</v>
+        <v>1.071235449917954</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
+      <c r="A118" s="2">
+        <v>45259</v>
       </c>
       <c r="B118">
-        <v>0.8102025702305345</v>
+        <v>1.071129604694363</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
+      <c r="A119" s="2">
+        <v>45261</v>
       </c>
       <c r="B119">
-        <v>0.8094216548389735</v>
+        <v>1.071051360268342</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
+      <c r="A120" s="2">
+        <v>45264</v>
       </c>
       <c r="B120">
-        <v>1.799220073976661</v>
+        <v>1.081837533769011</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
+      <c r="A121" s="2">
+        <v>45267</v>
       </c>
       <c r="B121">
-        <v>0.7977997876466056</v>
+        <v>2.08323253949001</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2">
+        <v>45270</v>
       </c>
       <c r="B122">
-        <v>0.8030784284633536</v>
+        <v>2.076833712572179</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>45271</v>
       </c>
       <c r="B123">
-        <v>1.795321265701624</v>
+        <v>1.073897150549606</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
+      <c r="A124" s="2">
+        <v>45272</v>
       </c>
       <c r="B124">
-        <v>0.7941544171393846</v>
+        <v>1.075415515693136</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
+      <c r="A125" s="2">
+        <v>45276</v>
       </c>
       <c r="B125">
-        <v>0.7997092722408817</v>
+        <v>1.075309670469545</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
+      <c r="A126" s="2">
+        <v>45278</v>
       </c>
       <c r="B126">
-        <v>0.7989283568493207</v>
+        <v>1.075231426043524</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
+      <c r="A127" s="2">
+        <v>45280</v>
       </c>
       <c r="B127">
-        <v>1.788726775987008</v>
+        <v>1.086017599544193</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2">
+        <v>45281</v>
       </c>
       <c r="B128">
-        <v>0.7873064896569528</v>
+        <v>2.087412605265192</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
+      <c r="A129" s="2">
+        <v>45286</v>
       </c>
       <c r="B129">
-        <v>0.7925851304737008</v>
+        <v>2.081013778347361</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>45287</v>
       </c>
       <c r="B130">
-        <v>1.784827967711972</v>
+        <v>1.078077216324788</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
+      <c r="A131" s="2">
+        <v>45289</v>
       </c>
       <c r="B131">
-        <v>0.783661119149732</v>
+        <v>1.079595581468318</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
+      <c r="A132" s="2">
+        <v>45290</v>
       </c>
       <c r="B132">
-        <v>0.7892159742512289</v>
+        <v>1.079489736244727</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
+      <c r="A133" s="2">
+        <v>45291</v>
       </c>
       <c r="B133">
-        <v>0.7884350588596679</v>
+        <v>1.079411491818706</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
+      <c r="A134" s="2">
+        <v>45295</v>
       </c>
       <c r="B134">
-        <v>1.778233477997355</v>
+        <v>1.090197665319375</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
+      <c r="A135" s="2">
+        <v>45296</v>
       </c>
       <c r="B135">
-        <v>0.7768131916673</v>
+        <v>2.091592671040374</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
+      <c r="A136" s="2">
+        <v>45297</v>
       </c>
       <c r="B136">
-        <v>0.782091832484048</v>
+        <v>2.085193844122543</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
+      <c r="A137" s="2">
+        <v>45298</v>
       </c>
       <c r="B137">
-        <v>1.774334669722319</v>
+        <v>1.08225728209997</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
+      <c r="A138" s="2">
+        <v>45299</v>
       </c>
       <c r="B138">
-        <v>0.7731678211600792</v>
+        <v>1.0837756472435</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
+      <c r="A139" s="2">
+        <v>45300</v>
       </c>
       <c r="B139">
-        <v>0.7787226762615763</v>
+        <v>1.083669802019908</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
+      <c r="A140" s="2">
+        <v>45301</v>
       </c>
       <c r="B140">
-        <v>0.7779417608700153</v>
+        <v>1.083591557593888</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
+      <c r="A141" s="2">
+        <v>45303</v>
       </c>
       <c r="B141">
-        <v>1.767740180007702</v>
+        <v>1.094377731094557</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
+      <c r="A142" s="2">
+        <v>45304</v>
       </c>
       <c r="B142">
-        <v>0.7663198936776472</v>
+        <v>2.095772736815556</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
+      <c r="A143" s="2">
+        <v>45306</v>
       </c>
       <c r="B143">
-        <v>0.7715985344943952</v>
+        <v>2.089373909897724</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
+      <c r="A144" s="2">
+        <v>45308</v>
       </c>
       <c r="B144">
-        <v>1.763841371732666</v>
+        <v>1.086437347875152</v>
       </c>
       <c r="C144">
         <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>143</v>
+      <c r="A145" s="2">
+        <v>45315</v>
       </c>
       <c r="B145">
-        <v>0.7626745231704264</v>
+        <v>1.087955713018682</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>144</v>
+      <c r="A146" s="2">
+        <v>45316</v>
       </c>
       <c r="B146">
-        <v>0.7682293782719235</v>
+        <v>1.087849867795091</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1">
-        <v>145</v>
+      <c r="A147" s="2">
+        <v>45320</v>
       </c>
       <c r="B147">
-        <v>0.7674484628803625</v>
+        <v>1.08777162336907</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>146</v>
+      <c r="A148" s="2">
+        <v>45321</v>
       </c>
       <c r="B148">
-        <v>1.75724688201805</v>
+        <v>1.098557796869738</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1">
-        <v>147</v>
+      <c r="A149" s="2">
+        <v>45326</v>
       </c>
       <c r="B149">
-        <v>0.7558265956879946</v>
+        <v>2.099952802590737</v>
       </c>
       <c r="C149">
         <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>148</v>
+      <c r="A150" s="2">
+        <v>45327</v>
       </c>
       <c r="B150">
-        <v>0.7611052365047424</v>
+        <v>2.093553975672906</v>
       </c>
       <c r="C150">
         <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1">
-        <v>149</v>
+      <c r="A151" s="2">
+        <v>45328</v>
       </c>
       <c r="B151">
-        <v>1.753348073743013</v>
+        <v>1.090617413650334</v>
       </c>
       <c r="C151">
         <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>150</v>
+      <c r="A152" s="2">
+        <v>45332</v>
       </c>
       <c r="B152">
-        <v>0.7521812251807736</v>
+        <v>1.092135778793863</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>151</v>
+      <c r="A153" s="2">
+        <v>45333</v>
       </c>
       <c r="B153">
-        <v>0.7577360802822707</v>
+        <v>1.092029933570272</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>152</v>
+      <c r="A154" s="2">
+        <v>45334</v>
       </c>
       <c r="B154">
-        <v>0.7569551648907097</v>
+        <v>1.091951689144252</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>153</v>
+      <c r="A155" s="2">
+        <v>45336</v>
       </c>
       <c r="B155">
-        <v>1.746753584028397</v>
+        <v>1.10273786264492</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>154</v>
+      <c r="A156" s="2">
+        <v>45337</v>
       </c>
       <c r="B156">
-        <v>0.7453332976983418</v>
+        <v>2.10413286836592</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>155</v>
+      <c r="A157" s="2">
+        <v>45339</v>
       </c>
       <c r="B157">
-        <v>0.7506119385150898</v>
+        <v>2.097734041448089</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1">
-        <v>156</v>
+      <c r="A158" s="2">
+        <v>45344</v>
       </c>
       <c r="B158">
-        <v>1.742854775753361</v>
+        <v>1.094797479425516</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1">
-        <v>157</v>
+      <c r="A159" s="2">
+        <v>45346</v>
       </c>
       <c r="B159">
-        <v>0.7416879271911208</v>
+        <v>1.096315844569046</v>
       </c>
       <c r="C159">
         <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1">
-        <v>158</v>
+      <c r="A160" s="2">
+        <v>45347</v>
       </c>
       <c r="B160">
-        <v>0.7472427822926179</v>
+        <v>1.096209999345454</v>
       </c>
       <c r="C160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>0.7464618669010569</v>
-      </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162">
-        <v>1.736260286038744</v>
-      </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>0.734839999708689</v>
-      </c>
-      <c r="C163">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164">
-        <v>0.740118640525437</v>
-      </c>
-      <c r="C164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>1.732361477763708</v>
-      </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>0.7311946292014682</v>
-      </c>
-      <c r="C166">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>0.7367494843029653</v>
-      </c>
-      <c r="C167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>0.7359685689114041</v>
-      </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>1.725766988049092</v>
-      </c>
-      <c r="C169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>0.7243467017190361</v>
-      </c>
-      <c r="C170">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171">
-        <v>0.7296253425357841</v>
-      </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172">
-        <v>1.721868179774055</v>
-      </c>
-      <c r="C172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173">
-        <v>0.7207013312118153</v>
-      </c>
-      <c r="C173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174">
-        <v>0.7262561863133125</v>
-      </c>
-      <c r="C174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175">
-        <v>0.7254752709217515</v>
-      </c>
-      <c r="C175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176">
-        <v>1.715273690059439</v>
-      </c>
-      <c r="C176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177">
-        <v>0.7138534037293833</v>
-      </c>
-      <c r="C177">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178">
-        <v>0.7191320445461313</v>
-      </c>
-      <c r="C178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179">
-        <v>1.711374881784402</v>
-      </c>
-      <c r="C179">
         <v>1</v>
       </c>
     </row>
